--- a/biology/Zoologie/Battus_belus/Battus_belus.xlsx
+++ b/biology/Zoologie/Battus_belus/Battus_belus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus belus est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,83 +523,89 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Battus belus a été décrit par Pieter Cramer en 1777 sous le nom de Papilio belus[1].
-Noms vernaculaires
-Battus belus se nomme Belus Swallowtail en anglais.
-Sous-espèces
-Battus belus belus; présent au Surinam et en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus belus a été décrit par Pieter Cramer en 1777 sous le nom de Papilio belus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus belus se nomme Belus Swallowtail en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Battus belus belus; présent au Surinam et en Guyane.
 Battus belus aureochloris Brown, 1994; présent au Brésil.
 Battus belus belemus (Bates, 1864); présent au Brésil.
 Battus belus cochabamba (Weeks, 1901); présent en Bolivie et au Pérou.
-Battus belus varus (Kollar, 1850); présent au Guatemala, au Venezuela, en Colombie, au Brésil et au Pérou[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Battus_belus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus belus est un grand papillon d'une envergure de 80 mm à 100 mm sans queue. Le dessus est noir largement suffusé de vert ou de bleu vert, avec une ornementation de taches blanches variable. Le revers est marron nacré avec aux postérieures une ligne submarginale de petits points blancs et de gros chevrons rouges.
-Chenille et chrysalide
-Les chenilles sont marron marquées de noir.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Battus_belus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aristoloches[1].
-</t>
+Battus belus varus (Kollar, 1850); présent au Guatemala, au Venezuela, en Colombie, au Brésil et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -612,16 +630,195 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus belus est un grand papillon d'une envergure de 80 mm à 100 mm sans queue. Le dessus est noir largement suffusé de vert ou de bleu vert, avec une ornementation de taches blanches variable. Le revers est marron nacré avec aux postérieures une ligne submarginale de petits points blancs et de gros chevrons rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont marron marquées de noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aristoloches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud, au Surinam, en Guyane, au Guatemala, au Venezuela, en Colombie, en Bolivie, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt humide d'Amérique du Sud.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud, au Surinam, en Guyane, au Guatemala, au Venezuela, en Colombie, en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide d'Amérique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Battus_belus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_belus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
